--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udacity Courses\Udacity - Artificial Intelligence Nanodegree\artificial-intelligence-master\Projects\2_Classical Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545C27EE-DE91-42A8-8090-C25251B8FD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C9048-8369-4BB1-ADCA-136AC5772D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4914" yWindow="3966" windowWidth="17280" windowHeight="8994" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1068,8 +1068,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB523B44-DF99-4AFB-803C-6175E39DEA63}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="42.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83984375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5">
+        <v>14663</v>
+      </c>
+      <c r="D2" s="5">
+        <v>18098</v>
+      </c>
+      <c r="E2" s="5">
+        <v>129625</v>
+      </c>
+      <c r="F2" s="7">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6">
+        <v>8.2749699999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>88</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>88</v>
+      </c>
+      <c r="C5" s="5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5">
+        <v>230</v>
+      </c>
+      <c r="F5" s="5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2.836E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>88</v>
+      </c>
+      <c r="C6" s="7">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7">
+        <v>126</v>
+      </c>
+      <c r="F6" s="5">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6">
+        <v>21.148040000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>88</v>
+      </c>
+      <c r="C7" s="5">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>195</v>
+      </c>
+      <c r="F7" s="5">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6">
+        <v>25.500029999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>88</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11102</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11104</v>
+      </c>
+      <c r="E8" s="5">
+        <v>101690</v>
+      </c>
+      <c r="F8" s="5">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6">
+        <v>24901.933099999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>88</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7388</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3790</v>
+      </c>
+      <c r="E9" s="5">
+        <v>65711</v>
+      </c>
+      <c r="F9" s="7">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6.6363599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5">
+        <v>369</v>
+      </c>
+      <c r="D10" s="5">
+        <v>371</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3403</v>
+      </c>
+      <c r="F10" s="7">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6">
+        <v>383.42775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>88</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>88</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1A9E67-EDF6-4654-8360-7FB4DD418CA3}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1110,18 +1371,32 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="5">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5">
+        <v>99736</v>
+      </c>
+      <c r="D2" s="5">
+        <v>114953</v>
+      </c>
+      <c r="E2" s="5">
+        <v>944130</v>
+      </c>
+      <c r="F2" s="7">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>74.538589999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>104</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1132,7 +1407,9 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>104</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1143,40 +1420,78 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5">
+        <v>280</v>
+      </c>
+      <c r="F5" s="5">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.9090000000000002E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="5">
+        <v>104</v>
+      </c>
+      <c r="C6" s="7">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7">
+        <v>165</v>
+      </c>
+      <c r="F6" s="5">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6">
+        <v>39.173690000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="5">
+        <v>104</v>
+      </c>
+      <c r="C7" s="5">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5">
+        <v>580</v>
+      </c>
+      <c r="F7" s="5">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6">
+        <v>93.767179999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>104</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1187,29 +1502,55 @@
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="5">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34330</v>
+      </c>
+      <c r="D9" s="5">
+        <v>34332</v>
+      </c>
+      <c r="E9" s="5">
+        <v>328509</v>
+      </c>
+      <c r="F9" s="7">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6">
+        <v>43.652749999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="5">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1208</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1210</v>
+      </c>
+      <c r="E10" s="5">
+        <v>12210</v>
+      </c>
+      <c r="F10" s="5">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2199.2980600000001</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>104</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1220,7 +1561,9 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5">
+        <v>104</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1231,173 +1574,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1A9E67-EDF6-4654-8360-7FB4DD418CA3}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="42.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.62890625" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>